--- a/epigraphhub/data/brasil/sinan/metadata/ESQU.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/ESQU.xlsx
@@ -88,8 +88,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Ocupação/ Ramo de
-atividade</t>
+    <t xml:space="preserve">32. Ocupação/ Ramo de atividade</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -233,8 +232,7 @@
     <t xml:space="preserve">OUTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">37. Outros exames,
-especificar</t>
+    <t xml:space="preserve">37. Outros exames, especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_exame_outro</t>
@@ -361,9 +359,7 @@
     <t xml:space="preserve">DTTRAT</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Caso não tenha feito
-tratamento, qual o
-motivo?</t>
+    <t xml:space="preserve">40. Caso não tenha feito tratamento, qual o motivo?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_nao_tratamento</t>
@@ -404,9 +400,7 @@
     <t xml:space="preserve">TRATANAO</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Resultado da análise
-de verificação de cura - 1ª
-amostra</t>
+    <t xml:space="preserve">41. Resultado da análise de verificação de cura - 1ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">st_cura_afirmativo_1</t>
@@ -460,8 +454,7 @@
     <t xml:space="preserve">STCURA1</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Resultado da análise de verificação de cura - 2ª
-Amostra</t>
+    <t xml:space="preserve">41. Resultado da análise de verificação de cura - 2ª Amostra</t>
   </si>
   <si>
     <t xml:space="preserve">st_cura_afirmativo_2</t>
@@ -508,9 +501,7 @@
     <t xml:space="preserve">STCURA2</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Resultado da análise
-de verificação de cura - 3ª
-amostra</t>
+    <t xml:space="preserve">41. Resultado da análise de verificação de cura - 3ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">st_cura_afirmativo_3</t>
@@ -558,8 +549,7 @@
     <t xml:space="preserve">STCURA3</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Data do resultado da
-3ª amostra</t>
+    <t xml:space="preserve">42. Data do resultado da 3ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">dt_resultado_amostra3</t>
@@ -594,8 +584,7 @@
     <t xml:space="preserve">DT_RESU3</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Especificar forma
-clínica</t>
+    <t xml:space="preserve">43. Especificar forma clínica</t>
   </si>
   <si>
     <t xml:space="preserve">tp_anatomo_clinica</t>
@@ -625,9 +614,7 @@
     <t xml:space="preserve">FORMA</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Especificar forma
-clínica, se Outro
-especificar</t>
+    <t xml:space="preserve">43. Especificar forma clínica, se Outro especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_anatomo_clinica_outro</t>
@@ -644,9 +631,7 @@
     <t xml:space="preserve">DS_FORMA</t>
   </si>
   <si>
-    <t xml:space="preserve">44. O caso é autóctone
-do município de
-residência?</t>
+    <t xml:space="preserve">44. O caso é autóctone do município de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -938,8 +923,7 @@
 NOBAIINF</t>
   </si>
   <si>
-    <t xml:space="preserve">50. Nome da propriedade
-(se área rural)</t>
+    <t xml:space="preserve">50. Nome da propriedade (se área rural)</t>
   </si>
   <si>
     <t xml:space="preserve">no_propriedade_infeccao</t>
@@ -982,8 +966,7 @@
     <t xml:space="preserve">NOPROPIN</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Nome da coleção
-hídrica (nota 2)</t>
+    <t xml:space="preserve">51. Nome da coleção hídrica (nota 2)</t>
   </si>
   <si>
     <t xml:space="preserve">no_colecao_infeccao</t>
@@ -997,8 +980,7 @@
     <t xml:space="preserve">NOCOLINF</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Doença relacionada
-ao trabalho</t>
+    <t xml:space="preserve">52. Doença relacionada ao trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -1377,8 +1359,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="3" sqref="A8 A11:A18 A24:A26 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.66796875" defaultRowHeight="55.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
